--- a/pomiary_300725/power_vs_position_at_sample.xlsx
+++ b/pomiary_300725/power_vs_position_at_sample.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkowa\Desktop\Julia\Rezonatory2025\pomiary_300725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3BC625-DD4B-48E2-A4F7-5CD5BBEA96FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039B2E1-5192-41D6-9452-36C17ECBF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0A083B89-AAB4-4991-BCA7-7192355A255C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="pvps1" sheetId="2" r:id="rId1"/>
+    <sheet name="pvps2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +35,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Lp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Moc [mW]</t>
   </si>
   <si>
     <t>Śruba mikrometryczna [mm]</t>
+  </si>
+  <si>
+    <t>Śruba [mm]</t>
+  </si>
+  <si>
+    <t>Moc [mW] przed ogniskiem [5mm]</t>
+  </si>
+  <si>
+    <t>Moc [mW] za ogniskiem [45mm]</t>
   </si>
 </sst>
 </file>
@@ -147,604 +153,6 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Moc [mW]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>383.29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>382.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>388.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>392.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>393.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>392.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>392.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>391.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>391.57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>390.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>389.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>391.34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>392.23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>392.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>390.95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>390.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>391.13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>391.96</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>378.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>359.98</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>348.96</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>343.39</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>343.74</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>344.59</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>344.71</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>344.22</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>344.05</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>344.81</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>345.83</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>346.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>346.41</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>343.39</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>343.66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>347.51</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>348.02</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>348.04</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>348.22</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>347.83</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>342.68</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>344.67</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>346.07</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>347.23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>347.45</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>347.26</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>346.86</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>347.13</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>346.88</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>346.03</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>342.73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>343.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BD3-4085-8E95-8271C04775B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1386724415"/>
-        <c:axId val="1576196847"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1386724415"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1576196847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1576196847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1386724415"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -752,7 +160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz2!$B$1</c:f>
+              <c:f>pvps1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -787,7 +195,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$2:$A$86</c:f>
+              <c:f>pvps1!$A$2:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
@@ -1051,7 +459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$B$2:$B$86</c:f>
+              <c:f>pvps1!$B$2:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
@@ -1427,46 +835,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1983,564 +1351,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66113331-B20F-4F93-A59D-C762A63F7599}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2877,438 +1688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAF866F-F121-4EF8-8445-101F14B4BC29}">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>383.29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>382.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>388.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>392.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>393.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>392.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>392.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>391.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>391.57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>390.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>389.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>391.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>392.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>392.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>390.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>390.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>391.13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>391.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>378.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>359.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>348.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>343.39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>343.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>344.59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>344.71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>344.22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>344.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>344.81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>345.83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>346.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>346.41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>343.39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>343.66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>347.51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>348.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>348.04</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>348.22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>347.83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>342.68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>344.67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>346.07</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>347.23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>347.45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>347.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>346.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>347.13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>346.88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>346.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>342.73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>343.63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB94054-C2D2-40B9-8EA7-7593B009CF4D}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,10 +1703,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,6 +1723,9 @@
       </c>
       <c r="B3">
         <v>470.05</v>
+      </c>
+      <c r="D3">
+        <v>13.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,4 +2280,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63CE94F-2A21-407A-9A9F-0F0A09F6573E}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>459.2</v>
+      </c>
+      <c r="C2">
+        <v>459.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>455.33</v>
+      </c>
+      <c r="C3">
+        <v>457.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>440.78</v>
+      </c>
+      <c r="C4">
+        <v>450.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>417.85</v>
+      </c>
+      <c r="C5">
+        <v>437.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>402.08</v>
+      </c>
+      <c r="C6">
+        <v>420.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.25</v>
+      </c>
+      <c r="B7">
+        <v>399.5</v>
+      </c>
+      <c r="C7">
+        <v>405.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5</v>
+      </c>
+      <c r="B8">
+        <v>400.55</v>
+      </c>
+      <c r="C8">
+        <v>400.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.75</v>
+      </c>
+      <c r="B9">
+        <v>401.65</v>
+      </c>
+      <c r="C9">
+        <v>399.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>402.39</v>
+      </c>
+      <c r="C10">
+        <v>400.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.25</v>
+      </c>
+      <c r="B11">
+        <v>402.57</v>
+      </c>
+      <c r="C11">
+        <v>401.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>401.62</v>
+      </c>
+      <c r="C12">
+        <v>402.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.75</v>
+      </c>
+      <c r="B13">
+        <v>401.92</v>
+      </c>
+      <c r="C13">
+        <v>402.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>402.47</v>
+      </c>
+      <c r="C14">
+        <v>402.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.25</v>
+      </c>
+      <c r="B15">
+        <v>403.77</v>
+      </c>
+      <c r="C15">
+        <v>402.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.5</v>
+      </c>
+      <c r="B16">
+        <v>404.22</v>
+      </c>
+      <c r="C16">
+        <v>403.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.75</v>
+      </c>
+      <c r="B17">
+        <v>404.17</v>
+      </c>
+      <c r="C17">
+        <v>403.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>404.38</v>
+      </c>
+      <c r="C18">
+        <v>403.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.25</v>
+      </c>
+      <c r="B19">
+        <v>404.82</v>
+      </c>
+      <c r="C19">
+        <v>404.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.5</v>
+      </c>
+      <c r="B20">
+        <v>404.65</v>
+      </c>
+      <c r="C20">
+        <v>404.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.75</v>
+      </c>
+      <c r="B21">
+        <v>404.31</v>
+      </c>
+      <c r="C21">
+        <v>404.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>404.27</v>
+      </c>
+      <c r="C22">
+        <v>404.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.25</v>
+      </c>
+      <c r="B23">
+        <v>404.22</v>
+      </c>
+      <c r="C23">
+        <v>404.57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.5</v>
+      </c>
+      <c r="B24">
+        <v>404.65</v>
+      </c>
+      <c r="C24">
+        <v>404.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.75</v>
+      </c>
+      <c r="B25">
+        <v>404.44</v>
+      </c>
+      <c r="C25">
+        <v>404.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>404.57</v>
+      </c>
+      <c r="C26">
+        <v>404.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6.25</v>
+      </c>
+      <c r="B27">
+        <v>404.39</v>
+      </c>
+      <c r="C27">
+        <v>404.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6.5</v>
+      </c>
+      <c r="B28">
+        <v>404.77</v>
+      </c>
+      <c r="C28">
+        <v>404.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6.75</v>
+      </c>
+      <c r="B29">
+        <v>405.27</v>
+      </c>
+      <c r="C29">
+        <v>404.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>405.03</v>
+      </c>
+      <c r="C30">
+        <v>405.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pomiary_300725/power_vs_position_at_sample.xlsx
+++ b/pomiary_300725/power_vs_position_at_sample.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkowa\Desktop\Julia\Rezonatory2025\pomiary_300725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039B2E1-5192-41D6-9452-36C17ECBF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D44F94-088D-4168-81F3-74F4A6F5F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0A083B89-AAB4-4991-BCA7-7192355A255C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0A083B89-AAB4-4991-BCA7-7192355A255C}"/>
   </bookViews>
   <sheets>
     <sheet name="pvps1" sheetId="2" r:id="rId1"/>
     <sheet name="pvps2" sheetId="3" r:id="rId2"/>
+    <sheet name="pvp 3107 - po korekcie" sheetId="4" r:id="rId3"/>
+    <sheet name="pvp 3107 - po drugiej korekcie" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Moc [mW]</t>
   </si>
@@ -50,6 +52,12 @@
   </si>
   <si>
     <t>Moc [mW] za ogniskiem [45mm]</t>
+  </si>
+  <si>
+    <t>Moc przed ogniskiem (5mm) [mW]</t>
+  </si>
+  <si>
+    <t>Moc za ogniskiem (40 mm) [mW]</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63CE94F-2A21-407A-9A9F-0F0A09F6573E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2630,4 +2638,614 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C2C37-46A5-4457-8A13-C0F63D4B21E7}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>465.4</v>
+      </c>
+      <c r="C2">
+        <v>466.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>466.32</v>
+      </c>
+      <c r="C3">
+        <v>467.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>466.92</v>
+      </c>
+      <c r="C4">
+        <v>467.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>467.5</v>
+      </c>
+      <c r="C5">
+        <v>467.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>467.97</v>
+      </c>
+      <c r="C6">
+        <v>467.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.25</v>
+      </c>
+      <c r="B7">
+        <v>468.07</v>
+      </c>
+      <c r="C7">
+        <v>467.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5</v>
+      </c>
+      <c r="B8">
+        <v>467.95</v>
+      </c>
+      <c r="C8">
+        <v>466.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.75</v>
+      </c>
+      <c r="B9">
+        <v>467.62</v>
+      </c>
+      <c r="C9">
+        <v>467.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>467.51</v>
+      </c>
+      <c r="C10">
+        <v>466.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.25</v>
+      </c>
+      <c r="B11">
+        <v>466.57</v>
+      </c>
+      <c r="C11">
+        <v>462.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>462.8</v>
+      </c>
+      <c r="C12">
+        <v>449.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.75</v>
+      </c>
+      <c r="B13">
+        <v>452.36</v>
+      </c>
+      <c r="C13">
+        <v>424.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>428.5</v>
+      </c>
+      <c r="C14">
+        <v>406.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.25</v>
+      </c>
+      <c r="B15">
+        <v>411.48</v>
+      </c>
+      <c r="C15">
+        <v>404.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.5</v>
+      </c>
+      <c r="B16">
+        <v>405.32</v>
+      </c>
+      <c r="C16">
+        <v>405.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.75</v>
+      </c>
+      <c r="B17">
+        <v>405.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>406.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.25</v>
+      </c>
+      <c r="B19">
+        <v>406.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.5</v>
+      </c>
+      <c r="B20">
+        <v>407.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.75</v>
+      </c>
+      <c r="B21">
+        <v>409.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>409.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.25</v>
+      </c>
+      <c r="B23">
+        <v>409.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.5</v>
+      </c>
+      <c r="B24">
+        <v>410.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.75</v>
+      </c>
+      <c r="B25">
+        <v>411.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>411.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6.25</v>
+      </c>
+      <c r="B27">
+        <v>411.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6.5</v>
+      </c>
+      <c r="B28">
+        <v>411.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6.75</v>
+      </c>
+      <c r="B29">
+        <v>411.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>411.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8F2313-7F54-4EB0-9CF5-6FD083510573}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>468.45</v>
+      </c>
+      <c r="C2">
+        <v>469.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>468.57</v>
+      </c>
+      <c r="C3">
+        <v>469.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>468.73</v>
+      </c>
+      <c r="C4">
+        <v>469.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>468.7</v>
+      </c>
+      <c r="C5">
+        <v>469.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>468.05</v>
+      </c>
+      <c r="C6">
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.25</v>
+      </c>
+      <c r="B7">
+        <v>467.4</v>
+      </c>
+      <c r="C7">
+        <v>468.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5</v>
+      </c>
+      <c r="B8">
+        <v>466.36</v>
+      </c>
+      <c r="C8">
+        <v>466.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.75</v>
+      </c>
+      <c r="B9">
+        <v>462.23</v>
+      </c>
+      <c r="C9">
+        <v>463.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>444.57</v>
+      </c>
+      <c r="C10">
+        <v>446.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.25</v>
+      </c>
+      <c r="B11">
+        <v>417.8</v>
+      </c>
+      <c r="C11">
+        <v>416.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>399.43</v>
+      </c>
+      <c r="C12">
+        <v>399.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.75</v>
+      </c>
+      <c r="B13">
+        <v>400.65</v>
+      </c>
+      <c r="C13">
+        <v>401.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>404.36</v>
+      </c>
+      <c r="C14">
+        <v>404.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.25</v>
+      </c>
+      <c r="B15">
+        <v>405.97</v>
+      </c>
+      <c r="C15">
+        <v>406.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.5</v>
+      </c>
+      <c r="B16">
+        <v>407.23</v>
+      </c>
+      <c r="C16">
+        <v>407.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.75</v>
+      </c>
+      <c r="B17">
+        <v>407.44</v>
+      </c>
+      <c r="C17">
+        <v>407.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>407.68</v>
+      </c>
+      <c r="C18">
+        <v>408.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.25</v>
+      </c>
+      <c r="B19">
+        <v>408.84</v>
+      </c>
+      <c r="C19">
+        <v>409.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.5</v>
+      </c>
+      <c r="B20">
+        <v>410.05</v>
+      </c>
+      <c r="C20">
+        <v>410.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.75</v>
+      </c>
+      <c r="B21">
+        <v>411.21</v>
+      </c>
+      <c r="C21">
+        <v>411.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>411.79</v>
+      </c>
+      <c r="C22">
+        <v>412.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>